--- a/lixiao/summary/type_list.xlsx
+++ b/lixiao/summary/type_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t xml:space="preserve">Seq</t>
   </si>
@@ -26,6 +26,9 @@
     <t xml:space="preserve">挖掘 HERB 数据库</t>
   </si>
   <si>
+    <t xml:space="preserve">挖掘 BATMAN 数据库</t>
+  </si>
+  <si>
     <t xml:space="preserve">获取疾病或条件相关的基因集:Genecards</t>
   </si>
   <si>
@@ -38,7 +41,7 @@
     <t xml:space="preserve">全自动批量分子对接</t>
   </si>
   <si>
-    <t xml:space="preserve">单细胞注释细胞群</t>
+    <t xml:space="preserve">单细胞数据分析注释细胞群</t>
   </si>
   <si>
     <t xml:space="preserve">单细胞拟时分析</t>
@@ -62,66 +65,78 @@
     <t xml:space="preserve">构建 LASSO 等预测模型</t>
   </si>
   <si>
+    <t xml:space="preserve">从头开始的 RNA-seq 数据分析:从 fastq 开始质控、注释等</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limma, edgeR 差异分析</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基因注释、信息获取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBP 预测:RNA 结合蛋白与 RNA 的结合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常规 16s RNA 肠道菌数据分析:alpha多样性+beta多样性+biomarker筛选等</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肠道菌数据和代谢物数据联合分析:通过公共数据挖掘建立联系</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从公共数据库挖掘可用的 16s RNA 肠道菌群数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从公共数据库挖掘可用的代谢物数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分子对接肽与蛋白</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代谢物富集分析</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从头开始的 WES 数据分析:从 fastq 开始质控、注释等</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WES 变异筛选</t>
+  </si>
+  <si>
+    <t xml:space="preserve">变异注释</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从 GEO 挖掘可用数据:RNA-seq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pathview 可视化富集通路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">制作特定功能的 R 包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蛋白质 pdb 数据获取用于可视化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蛋白质信息获取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单细胞数据鉴定癌细胞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不同来源的 scRNA-seq 数据整合:RISC整合消除批次效应</t>
+  </si>
+  <si>
+    <t xml:space="preserve">富集分析</t>
+  </si>
+  <si>
     <t xml:space="preserve">从头开始的 RNA-seq 数据分析:从fastq开始质控、注释等</t>
   </si>
   <si>
-    <t xml:space="preserve">RNA-seq 差异分析</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基因注释、信息获取</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBP 预测:RNA 结合蛋白与 RNA 的结合</t>
-  </si>
-  <si>
-    <t xml:space="preserve">常规 16s RNA 肠道菌数据分析:alpha多样性+beta多样性+biomarker筛选等</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肠道菌数据和代谢物数据联合分析:通过公共数据挖掘建立联系</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从公共数据库挖掘可用的 16s RNA 肠道菌群数据</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从公共数据库挖掘可用的代谢物数据</t>
-  </si>
-  <si>
-    <t xml:space="preserve">代谢物富集分析</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从头开始的WES数据分析:从fastq开始质控、注释等</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WES 变异筛选</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从 GEO 挖掘可用数据:RNA-seq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathview 可视化富集通路</t>
-  </si>
-  <si>
-    <t xml:space="preserve">制作特定功能的 R 包</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蛋白质 pdb 数据获取用于可视化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蛋白质信息获取</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单细胞数据鉴定癌细胞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不同来源的 scRNA-seq 数据整合:RISC整合消除批次效应</t>
-  </si>
-  <si>
-    <t xml:space="preserve">富集分析</t>
-  </si>
-  <si>
     <t xml:space="preserve">差异分析</t>
   </si>
   <si>
+    <t xml:space="preserve">代谢物数据分析</t>
+  </si>
+  <si>
     <t xml:space="preserve">蛋白质或基因和代谢物数据联合分析:通过公共数据挖掘建立联系</t>
   </si>
   <si>
@@ -143,6 +158,9 @@
     <t xml:space="preserve">以拟时分析区分细胞亚群</t>
   </si>
   <si>
+    <t xml:space="preserve">不同来源的 scRNA-seq 数据整合</t>
+  </si>
+  <si>
     <t xml:space="preserve">RNA 编辑位点信息挖掘:gtex数据库etqtl挖掘</t>
   </si>
   <si>
@@ -164,7 +182,7 @@
     <t xml:space="preserve">circRNA 结合 miRNA 位点预测</t>
   </si>
   <si>
-    <t xml:space="preserve">circRNA 结合 mRNA 位点预测</t>
+    <t xml:space="preserve">miRNA 结合 mRNA 位点预测</t>
   </si>
   <si>
     <t xml:space="preserve">TCMSP 数据库数据挖掘</t>
@@ -206,6 +224,9 @@
     <t xml:space="preserve">化合物信息获取:同义名、smiles、inchikey等</t>
   </si>
   <si>
+    <t xml:space="preserve">数据库获取化合物靶点</t>
+  </si>
+  <si>
     <t xml:space="preserve">疾病相关基因集:PharmGKB 数据库挖掘</t>
   </si>
   <si>
@@ -230,10 +251,61 @@
     <t xml:space="preserve">批量 OCR 识别图片中文字并整理结果</t>
   </si>
   <si>
+    <t xml:space="preserve">fastq 文件预处理、对齐参考基因</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宏基因组数据分析</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特征筛选</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWAS 数据获取和分析</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多数据库获取疾病靶点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">质谱数据分析:原始数据预处理、特征峰解卷积等</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跨膜蛋白数据获取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">药物临床化疗反应预测、耐药性预测</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蛋白转录后修饰位点预测</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表观遗传调控因子数据获取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">化合物和疾病关联数据获取 (CTD 数据库)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">药物 Drug-likeness 预测</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单细胞数据预测代谢通量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">甲基化芯片数据分析</t>
+  </si>
+  <si>
+    <t xml:space="preserve">差异甲基化分析、可视化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CpG islands 数据获取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCSC table 数据获取、基因位点注释</t>
+  </si>
+  <si>
     <t xml:space="preserve">...</t>
   </si>
   <si>
-    <t xml:space="preserve">Last update: 2024-02-02 11:07:16.205867</t>
+    <t xml:space="preserve">Last update: 2024-06-03 10:46:49.21558</t>
   </si>
   <si>
     <t xml:space="preserve">Author: Huang LiChuang</t>
@@ -1137,21 +1209,213 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72"/>
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73"/>
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
       <c r="B73" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74"/>
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
       <c r="B74" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96"/>
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97"/>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98"/>
+      <c r="B98" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
